--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CGGT\CIS565\project1\Project1-CUDA-Flocking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A23AD5D-250A-4CCB-ABB4-3E531D358B60}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6D638D-6633-4683-988C-C611F549E484}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" xr2:uid="{15BE79DC-220B-4D18-A60B-9226148BB985}"/>
   </bookViews>
@@ -5068,16 +5068,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>161290</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5105,15 +5105,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5141,15 +5141,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>22098</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5176,16 +5176,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>48006</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5512,8 +5512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC8C525-4E31-4F42-A582-D691BD1109C4}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="D86" workbookViewId="0">
+      <selection activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
